--- a/xlsx/同盟國 (第二次世界大戰)_intext.xlsx
+++ b/xlsx/同盟國 (第二次世界大戰)_intext.xlsx
@@ -29,7 +29,7 @@
     <t>協約國</t>
   </si>
   <si>
-    <t>政策_政策_美國_同盟國 (第二次世界大戰)</t>
+    <t>体育运动_体育运动_纳粹德国_同盟國 (第二次世界大戰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9B%BD_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98)</t>
